--- a/output/0/tRNA-Ile-TAT-3-1.xlsx
+++ b/output/0/tRNA-Ile-TAT-3-1.xlsx
@@ -12,96 +12,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>chr6</t>
   </si>
   <si>
-    <t>28505362</t>
-  </si>
-  <si>
-    <t>28505385</t>
+    <t>28505369</t>
+  </si>
+  <si>
+    <t>28505392</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>28505372</t>
+  </si>
+  <si>
+    <t>150,150,150</t>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>GCGCTAACCGATTGCGCCAC</t>
+  </si>
+  <si>
+    <t>TGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>21% (39)</t>
+  </si>
+  <si>
+    <t>83% (63)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>28505373</t>
+  </si>
+  <si>
+    <t>28505396</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
-    <t>28505382</t>
-  </si>
-  <si>
-    <t>150,150,150</t>
-  </si>
-  <si>
-    <t>255,0,0</t>
-  </si>
-  <si>
-    <t>TGTGGCTCCAGTGGCGCAAT</t>
+    <t>28505393</t>
+  </si>
+  <si>
+    <t>TGGCGCAATCGGTTAGCGCG</t>
   </si>
   <si>
     <t>CGG</t>
-  </si>
-  <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>35% (45)</t>
-  </si>
-  <si>
-    <t>94% (74)</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>28505369</t>
-  </si>
-  <si>
-    <t>28505392</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>28505372</t>
-  </si>
-  <si>
-    <t>GCGCTAACCGATTGCGCCAC</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>21% (39)</t>
-  </si>
-  <si>
-    <t>83% (63)</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>28505373</t>
-  </si>
-  <si>
-    <t>28505396</t>
-  </si>
-  <si>
-    <t>28505393</t>
-  </si>
-  <si>
-    <t>TGGCGCAATCGGTTAGCGCG</t>
   </si>
   <si>
     <t>86% (62)</t>
@@ -158,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -181,10 +157,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -240,10 +216,10 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -279,65 +255,6 @@
         <v>15</v>
       </c>
       <c r="S2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" t="s">
         <v>3</v>
       </c>
     </row>
